--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12D7BB6-C89B-445C-9CAF-D7BEAB2C6206}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614FDAC-9C74-4432-8AF8-B4F4837335E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -506,7 +506,7 @@
     <numFmt numFmtId="167" formatCode="#0.0#"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +755,13 @@
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1075,7 +1082,7 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1333,6 +1340,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,53 +1418,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2006,32 +2016,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="124" t="s">
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="128" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="124"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="124"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="128"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -2039,7 +2049,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="124"/>
+      <c r="G4" s="128"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -2052,7 +2062,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="124"/>
+      <c r="G5" s="128"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
@@ -2064,7 +2074,7 @@
       <c r="F6" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="124"/>
+      <c r="G6" s="128"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
@@ -2074,7 +2084,7 @@
         <v>98</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="124"/>
+      <c r="G7" s="128"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -2082,7 +2092,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="124"/>
+      <c r="G8" s="128"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
@@ -2092,7 +2102,7 @@
         <v>123</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="124"/>
+      <c r="G9" s="128"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -2100,7 +2110,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="26"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="124"/>
+      <c r="G10" s="128"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
@@ -2108,7 +2118,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="124"/>
+      <c r="G11" s="128"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
@@ -2125,57 +2135,57 @@
       <c r="B13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113" t="s">
+      <c r="A18" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -2188,21 +2198,21 @@
       <c r="B20" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -2358,16 +2368,16 @@
       <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -2377,11 +2387,11 @@
       <c r="B39" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2434,15 +2444,15 @@
       <c r="B43" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="123" t="str">
+      <c r="C43" s="127" t="str">
         <f>CONCATENATE("Système hydraulique de ",K43," kN avec servovalve contrôlé par une boucle d'asservissement.")</f>
         <v>Système hydraulique de xxx kN avec servovalve contrôlé par une boucle d'asservissement.</v>
       </c>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
       <c r="K43" s="99" t="s">
         <v>91</v>
       </c>
@@ -2599,7 +2609,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D14" sqref="D14:D15"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:D49"/>
+      <selection pane="topRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2707,24 +2717,24 @@
       <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="128"/>
+      <c r="D14" s="116"/>
     </row>
     <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130" t="s">
+      <c r="A15" s="117"/>
+      <c r="B15" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="132"/>
+      <c r="D15" s="120"/>
     </row>
     <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
@@ -3023,24 +3033,24 @@
       <c r="D43" s="47"/>
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="126"/>
-      <c r="C44" s="127" t="s">
+      <c r="B44" s="114"/>
+      <c r="C44" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="134"/>
+      <c r="D44" s="122"/>
     </row>
     <row r="45" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="135"/>
-      <c r="C45" s="136" t="s">
+      <c r="B45" s="123"/>
+      <c r="C45" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="137"/>
+      <c r="D45" s="125"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="104" t="s">
@@ -3050,7 +3060,7 @@
       <c r="C46" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="138"/>
+      <c r="D46" s="126"/>
     </row>
     <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
@@ -3086,6 +3096,7 @@
       <c r="A50" s="109"/>
       <c r="B50" s="110"/>
       <c r="C50" s="111"/>
+      <c r="D50" s="139"/>
     </row>
     <row r="51" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
@@ -4335,18 +4346,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4369,14 +4380,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -4391,4 +4394,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614FDAC-9C74-4432-8AF8-B4F4837335E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F43FE38-6109-45B2-88BD-B91E29CCC9E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -69,14 +69,14 @@
     <definedName name="PV_εmax_imposée">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Courbes!$A$1:$H$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'En-tête'!$A$1:$H$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">PV!$A$1:$D$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PV!$A$1:$D$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t>Date de l'essai</t>
   </si>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t>COMPTE-RENDU D'ESSAIS DE FATIGUE</t>
+  </si>
+  <si>
+    <t>Pas surcharge</t>
+  </si>
+  <si>
+    <t>Requête surcharge</t>
+  </si>
+  <si>
+    <t>Nb Surcharge</t>
+  </si>
+  <si>
+    <t>Cycle du dernier niveau</t>
   </si>
 </sst>
 </file>
@@ -757,7 +769,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -802,7 +814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1005,35 +1017,47 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1071,6 +1095,30 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1082,7 +1130,7 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1230,30 +1278,6 @@
     <xf numFmtId="2" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="20" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1352,15 +1376,9 @@
     <xf numFmtId="167" fontId="26" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="167" fontId="26" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1382,6 +1400,42 @@
     <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="167" fontId="26" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
@@ -1417,6 +1471,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="5" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1996,7 +2062,7 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G11"/>
     </sheetView>
   </sheetViews>
@@ -2016,32 +2082,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="128" t="s">
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="130" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="128"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="128"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="130"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -2049,7 +2115,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="128"/>
+      <c r="G4" s="130"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -2062,7 +2128,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="128"/>
+      <c r="G5" s="130"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
@@ -2074,7 +2140,7 @@
       <c r="F6" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="128"/>
+      <c r="G6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
@@ -2084,7 +2150,7 @@
         <v>98</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="128"/>
+      <c r="G7" s="130"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -2092,7 +2158,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="128"/>
+      <c r="G8" s="130"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
@@ -2102,7 +2168,7 @@
         <v>123</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="128"/>
+      <c r="G9" s="130"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -2110,7 +2176,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="26"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="128"/>
+      <c r="G10" s="130"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
@@ -2118,7 +2184,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="128"/>
+      <c r="G11" s="130"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
@@ -2135,57 +2201,57 @@
       <c r="B13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -2198,21 +2264,21 @@
       <c r="B20" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -2311,7 +2377,7 @@
       <c r="D31" s="13"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-      <c r="M31" s="98"/>
+      <c r="M31" s="90"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
@@ -2325,14 +2391,14 @@
       <c r="D32" s="13"/>
       <c r="E32" s="33"/>
       <c r="F32" s="16"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="100" t="s">
+      <c r="K32" s="91"/>
+      <c r="L32" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="M32" s="101" t="s">
+      <c r="M32" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="N32" s="99"/>
+      <c r="N32" s="91"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -2368,16 +2434,16 @@
       <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -2387,11 +2453,11 @@
       <c r="B39" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2401,9 +2467,9 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -2417,9 +2483,9 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -2435,43 +2501,43 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="127" t="str">
+      <c r="C43" s="129" t="str">
         <f>CONCATENATE("Système hydraulique de ",K43," kN avec servovalve contrôlé par une boucle d'asservissement.")</f>
         <v>Système hydraulique de xxx kN avec servovalve contrôlé par une boucle d'asservissement.</v>
       </c>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="K43" s="99" t="s">
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="K43" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="97"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -2486,9 +2552,9 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -2498,9 +2564,9 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="12"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -2514,9 +2580,9 @@
         <v>38</v>
       </c>
       <c r="G47" s="5"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -2606,10 +2672,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CY76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D14" sqref="D14:D15"/>
-      <selection pane="topRight" activeCell="D50" sqref="D50"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2620,8 +2686,8 @@
     <col min="4" max="87" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="102" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P1" s="103" t="s">
+    <row r="1" spans="1:16" s="94" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="95" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2629,24 +2695,24 @@
       <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="99"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
@@ -2717,804 +2783,431 @@
       <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114" t="s">
+      <c r="A14" s="105"/>
+      <c r="B14" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="116"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118" t="s">
+      <c r="D14" s="108"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+      <c r="B15" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="120"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="D15" s="117"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="118"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="127" t="str">
+        <f>IF(C14="",C15,C14)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D17" s="110"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="D18" s="55"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="51" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="56"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="51" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="56"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="60"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="D21" s="60"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="63"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="63"/>
+      <c r="D22" s="122"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="51" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="63"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="65"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="63"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="63"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="65"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="66"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="70"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="D28" s="123"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="142"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B30" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C30" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="74"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="D30" s="126"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B31" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C31" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="63"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="D31" s="63"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B32" s="67" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="63"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="78"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>69</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="63"/>
     </row>
-    <row r="33" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+    <row r="33" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="51" t="s">
+      <c r="B33" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="70"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="63"/>
+      <c r="A34" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>72</v>
+      <c r="A35" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="65"/>
+        <v>63</v>
+      </c>
+      <c r="D35" s="63"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="66"/>
+        <v>63</v>
+      </c>
+      <c r="D36" s="63"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="79"/>
+        <v>63</v>
+      </c>
+      <c r="D37" s="63"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>77</v>
+      <c r="A38" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="79"/>
+        <v>56</v>
+      </c>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="79"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="76" t="s">
+      <c r="D39" s="66"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="71"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="71"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="71"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B43" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C43" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="80"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="D43" s="72"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="55"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="B44" s="53"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="55"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="47"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="47"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121" t="s">
+      <c r="B46" s="44"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="47"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="115" t="s">
+      <c r="B47" s="106"/>
+      <c r="C47" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="122"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121" t="s">
+      <c r="D47" s="112"/>
+    </row>
+    <row r="48" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="124" t="s">
+      <c r="B48" s="113"/>
+      <c r="C48" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="125"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="104" t="s">
+      <c r="D48" s="115"/>
+    </row>
+    <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106" t="s">
+      <c r="B49" s="97"/>
+      <c r="C49" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="126"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="D49" s="116"/>
+    </row>
+    <row r="50" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="97"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="116"/>
+    </row>
+    <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="51" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="47"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="D51" s="47"/>
+    </row>
+    <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="48" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="81"/>
-    </row>
-    <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="D52" s="73"/>
+    </row>
+    <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="51" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="82"/>
-    </row>
-    <row r="50" spans="1:103" s="112" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="139"/>
-    </row>
-    <row r="51" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="45"/>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="45"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="45"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="45"/>
-      <c r="AJ51" s="45"/>
-      <c r="AK51" s="45"/>
-      <c r="AL51" s="45"/>
-      <c r="AM51" s="45"/>
-      <c r="AN51" s="45"/>
-      <c r="AO51" s="45"/>
-      <c r="AP51" s="45"/>
-      <c r="AQ51" s="45"/>
-      <c r="AR51" s="45"/>
-      <c r="AS51" s="45"/>
-      <c r="AT51" s="45"/>
-      <c r="AU51" s="45"/>
-      <c r="AV51" s="45"/>
-      <c r="AW51" s="45"/>
-      <c r="AX51" s="45"/>
-      <c r="AY51" s="45"/>
-      <c r="AZ51" s="45"/>
-      <c r="BA51" s="45"/>
-      <c r="BB51" s="45"/>
-      <c r="BC51" s="45"/>
-      <c r="BD51" s="45"/>
-      <c r="BE51" s="45"/>
-      <c r="BF51" s="45"/>
-      <c r="BG51" s="45"/>
-      <c r="BH51" s="45"/>
-      <c r="BI51" s="45"/>
-      <c r="BJ51" s="45"/>
-      <c r="BK51" s="45"/>
-      <c r="BL51" s="45"/>
-      <c r="BM51" s="45"/>
-      <c r="BN51" s="45"/>
-      <c r="BO51" s="45"/>
-      <c r="BP51" s="45"/>
-      <c r="BQ51" s="45"/>
-      <c r="BR51" s="45"/>
-      <c r="BS51" s="45"/>
-      <c r="BT51" s="45"/>
-      <c r="BU51" s="45"/>
-      <c r="BV51" s="45"/>
-      <c r="BW51" s="45"/>
-      <c r="BX51" s="45"/>
-      <c r="BY51" s="45"/>
-      <c r="BZ51" s="45"/>
-      <c r="CA51" s="45"/>
-      <c r="CB51" s="45"/>
-      <c r="CC51" s="45"/>
-      <c r="CD51" s="45"/>
-      <c r="CE51" s="45"/>
-      <c r="CF51" s="45"/>
-      <c r="CG51" s="45"/>
-      <c r="CH51" s="45"/>
-      <c r="CI51" s="45"/>
-      <c r="CJ51" s="45"/>
-      <c r="CK51" s="45"/>
-      <c r="CL51" s="45"/>
-      <c r="CM51" s="45"/>
-      <c r="CN51" s="45"/>
-      <c r="CO51" s="45"/>
-      <c r="CP51" s="45"/>
-      <c r="CQ51" s="45"/>
-      <c r="CR51" s="45"/>
-      <c r="CS51" s="45"/>
-      <c r="CT51" s="45"/>
-      <c r="CU51" s="45"/>
-      <c r="CV51" s="45"/>
-      <c r="CW51" s="45"/>
-      <c r="CX51" s="45"/>
-      <c r="CY51" s="45"/>
-    </row>
-    <row r="52" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="87"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="87"/>
-      <c r="U52" s="87"/>
-      <c r="V52" s="87"/>
-      <c r="W52" s="87"/>
-      <c r="X52" s="87"/>
-      <c r="Y52" s="87"/>
-      <c r="Z52" s="87"/>
-      <c r="AA52" s="87"/>
-      <c r="AB52" s="87"/>
-      <c r="AC52" s="87"/>
-      <c r="AD52" s="87"/>
-      <c r="AE52" s="87"/>
-      <c r="AF52" s="87"/>
-      <c r="AG52" s="87"/>
-      <c r="AH52" s="87"/>
-      <c r="AI52" s="87"/>
-      <c r="AJ52" s="87"/>
-      <c r="AK52" s="87"/>
-      <c r="AL52" s="87"/>
-      <c r="AM52" s="87"/>
-      <c r="AN52" s="87"/>
-      <c r="AO52" s="87"/>
-      <c r="AP52" s="87"/>
-      <c r="AQ52" s="87"/>
-      <c r="AR52" s="87"/>
-      <c r="AS52" s="87"/>
-      <c r="AT52" s="87"/>
-      <c r="AU52" s="87"/>
-      <c r="AV52" s="87"/>
-      <c r="AW52" s="87"/>
-      <c r="AX52" s="87"/>
-      <c r="AY52" s="87"/>
-      <c r="AZ52" s="87"/>
-      <c r="BA52" s="87"/>
-      <c r="BB52" s="87"/>
-      <c r="BC52" s="87"/>
-      <c r="BD52" s="87"/>
-      <c r="BE52" s="87"/>
-      <c r="BF52" s="87"/>
-      <c r="BG52" s="87"/>
-      <c r="BH52" s="87"/>
-      <c r="BI52" s="87"/>
-      <c r="BJ52" s="87"/>
-      <c r="BK52" s="87"/>
-      <c r="BL52" s="87"/>
-      <c r="BM52" s="87"/>
-      <c r="BN52" s="87"/>
-      <c r="BO52" s="87"/>
-      <c r="BP52" s="87"/>
-      <c r="BQ52" s="87"/>
-      <c r="BR52" s="87"/>
-      <c r="BS52" s="87"/>
-      <c r="BT52" s="87"/>
-      <c r="BU52" s="87"/>
-      <c r="BV52" s="87"/>
-      <c r="BW52" s="87"/>
-      <c r="BX52" s="87"/>
-      <c r="BY52" s="87"/>
-      <c r="BZ52" s="87"/>
-      <c r="CA52" s="87"/>
-      <c r="CB52" s="87"/>
-      <c r="CC52" s="87"/>
-      <c r="CD52" s="87"/>
-      <c r="CE52" s="87"/>
-      <c r="CF52" s="87"/>
-      <c r="CG52" s="87"/>
-      <c r="CH52" s="87"/>
-      <c r="CI52" s="87"/>
-      <c r="CJ52" s="87"/>
-      <c r="CK52" s="87"/>
-      <c r="CL52" s="87"/>
-      <c r="CM52" s="87"/>
-      <c r="CN52" s="87"/>
-      <c r="CO52" s="87"/>
-      <c r="CP52" s="87"/>
-      <c r="CQ52" s="87"/>
-      <c r="CR52" s="87"/>
-      <c r="CS52" s="87"/>
-      <c r="CT52" s="87"/>
-      <c r="CU52" s="87"/>
-      <c r="CV52" s="87"/>
-      <c r="CW52" s="87"/>
-      <c r="CX52" s="87"/>
-      <c r="CY52" s="87"/>
-    </row>
-    <row r="53" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="45"/>
-      <c r="AE53" s="45"/>
-      <c r="AF53" s="45"/>
-      <c r="AG53" s="45"/>
-      <c r="AH53" s="45"/>
-      <c r="AI53" s="45"/>
-      <c r="AJ53" s="45"/>
-      <c r="AK53" s="45"/>
-      <c r="AL53" s="45"/>
-      <c r="AM53" s="45"/>
-      <c r="AN53" s="45"/>
-      <c r="AO53" s="45"/>
-      <c r="AP53" s="45"/>
-      <c r="AQ53" s="45"/>
-      <c r="AR53" s="45"/>
-      <c r="AS53" s="45"/>
-      <c r="AT53" s="45"/>
-      <c r="AU53" s="45"/>
-      <c r="AV53" s="45"/>
-      <c r="AW53" s="45"/>
-      <c r="AX53" s="45"/>
-      <c r="AY53" s="45"/>
-      <c r="AZ53" s="45"/>
-      <c r="BA53" s="45"/>
-      <c r="BB53" s="45"/>
-      <c r="BC53" s="45"/>
-      <c r="BD53" s="45"/>
-      <c r="BE53" s="45"/>
-      <c r="BF53" s="45"/>
-      <c r="BG53" s="45"/>
-      <c r="BH53" s="45"/>
-      <c r="BI53" s="45"/>
-      <c r="BJ53" s="45"/>
-      <c r="BK53" s="45"/>
-      <c r="BL53" s="45"/>
-      <c r="BM53" s="45"/>
-      <c r="BN53" s="45"/>
-      <c r="BO53" s="45"/>
-      <c r="BP53" s="45"/>
-      <c r="BQ53" s="45"/>
-      <c r="BR53" s="45"/>
-      <c r="BS53" s="45"/>
-      <c r="BT53" s="45"/>
-      <c r="BU53" s="45"/>
-      <c r="BV53" s="45"/>
-      <c r="BW53" s="45"/>
-      <c r="BX53" s="45"/>
-      <c r="BY53" s="45"/>
-      <c r="BZ53" s="45"/>
-      <c r="CA53" s="45"/>
-      <c r="CB53" s="45"/>
-      <c r="CC53" s="45"/>
-      <c r="CD53" s="45"/>
-      <c r="CE53" s="45"/>
-      <c r="CF53" s="45"/>
-      <c r="CG53" s="45"/>
-      <c r="CH53" s="45"/>
-      <c r="CI53" s="45"/>
-      <c r="CJ53" s="45"/>
-      <c r="CK53" s="45"/>
-      <c r="CL53" s="45"/>
-      <c r="CM53" s="45"/>
-      <c r="CN53" s="45"/>
-      <c r="CO53" s="45"/>
-      <c r="CP53" s="45"/>
-      <c r="CQ53" s="45"/>
-      <c r="CR53" s="45"/>
-      <c r="CS53" s="45"/>
-      <c r="CT53" s="45"/>
-      <c r="CU53" s="45"/>
-      <c r="CV53" s="45"/>
-      <c r="CW53" s="45"/>
-      <c r="CX53" s="45"/>
-      <c r="CY53" s="45"/>
-    </row>
-    <row r="54" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="D53" s="74"/>
+    </row>
+    <row r="54" spans="1:103" s="104" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="101"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="103"/>
+    </row>
+    <row r="55" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="45" t="s">
+      <c r="B55" s="75"/>
+      <c r="C55" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="45"/>
-      <c r="AJ54" s="45"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="45"/>
-      <c r="AO54" s="45"/>
-      <c r="AP54" s="45"/>
-      <c r="AQ54" s="45"/>
-      <c r="AR54" s="45"/>
-      <c r="AS54" s="45"/>
-      <c r="AT54" s="45"/>
-      <c r="AU54" s="45"/>
-      <c r="AV54" s="45"/>
-      <c r="AW54" s="45"/>
-      <c r="AX54" s="45"/>
-      <c r="AY54" s="45"/>
-      <c r="AZ54" s="45"/>
-      <c r="BA54" s="45"/>
-      <c r="BB54" s="45"/>
-      <c r="BC54" s="45"/>
-      <c r="BD54" s="45"/>
-      <c r="BE54" s="45"/>
-      <c r="BF54" s="45"/>
-      <c r="BG54" s="45"/>
-      <c r="BH54" s="45"/>
-      <c r="BI54" s="45"/>
-      <c r="BJ54" s="45"/>
-      <c r="BK54" s="45"/>
-      <c r="BL54" s="45"/>
-      <c r="BM54" s="45"/>
-      <c r="BN54" s="45"/>
-      <c r="BO54" s="45"/>
-      <c r="BP54" s="45"/>
-      <c r="BQ54" s="45"/>
-      <c r="BR54" s="45"/>
-      <c r="BS54" s="45"/>
-      <c r="BT54" s="45"/>
-      <c r="BU54" s="45"/>
-      <c r="BV54" s="45"/>
-      <c r="BW54" s="45"/>
-      <c r="BX54" s="45"/>
-      <c r="BY54" s="45"/>
-      <c r="BZ54" s="45"/>
-      <c r="CA54" s="45"/>
-      <c r="CB54" s="45"/>
-      <c r="CC54" s="45"/>
-      <c r="CD54" s="45"/>
-      <c r="CE54" s="45"/>
-      <c r="CF54" s="45"/>
-      <c r="CG54" s="45"/>
-      <c r="CH54" s="45"/>
-      <c r="CI54" s="45"/>
-      <c r="CJ54" s="45"/>
-      <c r="CK54" s="45"/>
-      <c r="CL54" s="45"/>
-      <c r="CM54" s="45"/>
-      <c r="CN54" s="45"/>
-      <c r="CO54" s="45"/>
-      <c r="CP54" s="45"/>
-      <c r="CQ54" s="45"/>
-      <c r="CR54" s="45"/>
-      <c r="CS54" s="45"/>
-      <c r="CT54" s="45"/>
-      <c r="CU54" s="45"/>
-      <c r="CV54" s="45"/>
-      <c r="CW54" s="45"/>
-      <c r="CX54" s="45"/>
-      <c r="CY54" s="45"/>
-    </row>
-    <row r="55" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="45"/>
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
       <c r="H55" s="45"/>
@@ -3616,7 +3309,7 @@
     </row>
     <row r="56" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
-      <c r="B56" s="83"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="45"/>
       <c r="F56" s="45"/>
       <c r="G56" s="45"/>
@@ -3719,7 +3412,7 @@
     </row>
     <row r="57" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
-      <c r="B57" s="83"/>
+      <c r="B57" s="75"/>
       <c r="C57" s="45"/>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
@@ -3822,7 +3515,7 @@
     </row>
     <row r="58" spans="1:103" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
-      <c r="B58" s="83"/>
+      <c r="B58" s="75"/>
       <c r="C58" s="45"/>
       <c r="F58" s="45"/>
       <c r="G58" s="45"/>
@@ -3923,61 +3616,64 @@
       <c r="CX58" s="45"/>
       <c r="CY58" s="45"/>
     </row>
+    <row r="59" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="145"/>
+    </row>
     <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="84" t="s">
+      <c r="B60" s="75"/>
+      <c r="C60" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
     </row>
     <row r="61" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="87"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="79"/>
       <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="83"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="108"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="45"/>
     </row>
     <row r="63" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45"/>
-      <c r="B63" s="83"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="45"/>
-      <c r="D63" s="85"/>
+      <c r="D63" s="77"/>
       <c r="E63" s="45"/>
     </row>
     <row r="64" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45"/>
-      <c r="B64" s="83"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="45"/>
-      <c r="D64" s="108"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="45"/>
     </row>
     <row r="65" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45"/>
-      <c r="B65" s="83"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="45"/>
-      <c r="D65" s="85"/>
+      <c r="D65" s="77"/>
       <c r="E65" s="45"/>
     </row>
     <row r="66" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45"/>
-      <c r="B66" s="83"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="45"/>
-      <c r="D66" s="108"/>
+      <c r="D66" s="100"/>
       <c r="E66" s="45"/>
     </row>
     <row r="76" spans="1:5" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4004,27 +3700,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="95" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="95"/>
+    <col min="1" max="1" width="11.42578125" style="87" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88"/>
-      <c r="D1" s="90" t="s">
+    <row r="1" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="80"/>
+      <c r="D1" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93">
+      <c r="G1" s="84"/>
+      <c r="H1" s="85">
         <f>'En-tête'!F5</f>
         <v>0</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="N1" s="94"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="I1" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -4181,6 +3877,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4345,22 +4056,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4377,29 +4098,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>